--- a/biology/Médecine/1408_en_santé_et_médecine/1408_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1408_en_santé_et_médecine/1408_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1408_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1408_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1408 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1408_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1408_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décembre : le roi Charles VI accorde aux barbiers de Tours des statuts semblables à ceux qu'ont reçus les barbiers de Paris en 1383[1].
-Un office de douze commissaires à la santé publique est institué à Barcelone en Catalogne[2].
-La faculté de médecine de Paris interdit à Jean de Pise l'exercice public de la chirurgie parce qu'il va être reçu docteur en médecine et qu'il est déshonorant à un médecin de pratiquer une activité manuelle[3].
-Fondation de l'hôpital Saint-Jean-Baptiste à Saint-Omer en Artois, par les héritiers de Jean de Wissocq, conçu pour « recevoir, coucher, héberger et alimenter les pauvres[4] » et qui, à partir de 1430, accueillera aussi les malades[5].
-Un apothicaire est mentionné à l'hôpital du Saint-Esprit à Arles, en Provence, confirmant la présence d'une pharmacie hospitalière « précoce, active et de qualité[6] » dans cette ville dont les hôpitaux disposent d'un médecin, d'un chirurgien et d'un apothicaire[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décembre : le roi Charles VI accorde aux barbiers de Tours des statuts semblables à ceux qu'ont reçus les barbiers de Paris en 1383.
+Un office de douze commissaires à la santé publique est institué à Barcelone en Catalogne.
+La faculté de médecine de Paris interdit à Jean de Pise l'exercice public de la chirurgie parce qu'il va être reçu docteur en médecine et qu'il est déshonorant à un médecin de pratiquer une activité manuelle.
+Fondation de l'hôpital Saint-Jean-Baptiste à Saint-Omer en Artois, par les héritiers de Jean de Wissocq, conçu pour « recevoir, coucher, héberger et alimenter les pauvres » et qui, à partir de 1430, accueillera aussi les malades.
+Un apothicaire est mentionné à l'hôpital du Saint-Esprit à Arles, en Provence, confirmant la présence d'une pharmacie hospitalière « précoce, active et de qualité » dans cette ville dont les hôpitaux disposent d'un médecin, d'un chirurgien et d'un apothicaire.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1408_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1408_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,22 +559,24 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Geoffroi d'Abbeville, médecin et astrologue du dauphin Louis[8].
-Fl. Hannequin Clement[8], Jean Milet, Jean Poulain et Pierre Richart[9], maîtres barbiers à Tours.
-Fl. Jean Ottorem et Pierre de Haquavilla, étudiants à la faculté de médecine de Paris[9].
-Fl. Monot Siquart, chirurgien à Bordeaux[9].
-1375-1408 : fl. Gérard de Lacombe, médecin d'origine auvergnate et peut-être formé à Montpellier, au service de Louis II, duc de Bourbon, du roi de France Charles VI et de la reine Isabeau[8].
-1386-1408 : fl. Aubry Jacometi, barbier à Avignon en Provence, originaire de Toul en Lorraine[8].
-1403-1408 : fl. Simon de Bosco, licencié en médecine à Paris[9]
-1408-1409 : fl. Barthélemy[8] et Nicolas de Sales[9], respectivement médecin et barbier à Marseille, examinateurs des personnes suspectes de lèpre.
-1408-1410 : fl. Jean de Fonte[8] et Nicolas Vosquin[9], reçus respectivement licencié et maître à la faculté de médecine de Paris.
-1408-1411 : fl. Jean de Leydis, maître ès arts et étudiant en médecine à Paris[9].
-1408-1418 : fl. Guillaume Mathola, chirurgien barbier de l'hôpital du Saint-Esprit à Marseille[8].
-1408-1427 : fl. Jean Warin, professeur de médecine à Paris[9].
-1408-1442 : fl. Rasso Dogghert, reçu maître en médecine à Paris, régent en 1411-1412[9].
-1408-1457 : fl. Moïse Marvan, chirurgien de l'hôpital du Saint-Esprit de Marseille, a soigné Louis II, roi de Naples, pour la maladie de la vessie dont il est mort en 1417[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Geoffroi d'Abbeville, médecin et astrologue du dauphin Louis.
+Fl. Hannequin Clement, Jean Milet, Jean Poulain et Pierre Richart, maîtres barbiers à Tours.
+Fl. Jean Ottorem et Pierre de Haquavilla, étudiants à la faculté de médecine de Paris.
+Fl. Monot Siquart, chirurgien à Bordeaux.
+1375-1408 : fl. Gérard de Lacombe, médecin d'origine auvergnate et peut-être formé à Montpellier, au service de Louis II, duc de Bourbon, du roi de France Charles VI et de la reine Isabeau.
+1386-1408 : fl. Aubry Jacometi, barbier à Avignon en Provence, originaire de Toul en Lorraine.
+1403-1408 : fl. Simon de Bosco, licencié en médecine à Paris
+1408-1409 : fl. Barthélemy et Nicolas de Sales, respectivement médecin et barbier à Marseille, examinateurs des personnes suspectes de lèpre.
+1408-1410 : fl. Jean de Fonte et Nicolas Vosquin, reçus respectivement licencié et maître à la faculté de médecine de Paris.
+1408-1411 : fl. Jean de Leydis, maître ès arts et étudiant en médecine à Paris.
+1408-1418 : fl. Guillaume Mathola, chirurgien barbier de l'hôpital du Saint-Esprit à Marseille.
+1408-1427 : fl. Jean Warin, professeur de médecine à Paris.
+1408-1442 : fl. Rasso Dogghert, reçu maître en médecine à Paris, régent en 1411-1412.
+1408-1457 : fl. Moïse Marvan, chirurgien de l'hôpital du Saint-Esprit de Marseille, a soigné Louis II, roi de Naples, pour la maladie de la vessie dont il est mort en 1417.</t>
         </is>
       </c>
     </row>
